--- a/trunk/formato tareas.xlsx
+++ b/trunk/formato tareas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="18735" windowHeight="11445"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>RESPONSABLE</t>
   </si>
@@ -75,9 +75,6 @@
     <t>FECHA REVISIÓN</t>
   </si>
   <si>
-    <t>ENCARGADO REVISION</t>
-  </si>
-  <si>
     <t>TAREA ENTREGADA</t>
   </si>
   <si>
@@ -106,6 +103,54 @@
   </si>
   <si>
     <t>LECTURA REQUERIMIENTOS MONOPOLIO</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ENCARGADO REVISIÓN</t>
+  </si>
+  <si>
+    <t>WILLIE - GERMÁN</t>
+  </si>
+  <si>
+    <t>SECCIÓN 7</t>
+  </si>
+  <si>
+    <t>LAURA ARIAS</t>
+  </si>
+  <si>
+    <t>SECCIÓN 5.2</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>SECCIÓN 5.5</t>
+  </si>
+  <si>
+    <t>GERMÁN</t>
+  </si>
+  <si>
+    <t>SECCIÓN 5.3.6</t>
+  </si>
+  <si>
+    <t>TERMINAR 6</t>
+  </si>
+  <si>
+    <t>SECCIÓN 5.4 , 5.3.4, 5.3.5</t>
+  </si>
+  <si>
+    <t>AGREGAR ANEXOS</t>
+  </si>
+  <si>
+    <t>ANDREA-LAURA</t>
+  </si>
+  <si>
+    <t>SECCIÓN 1</t>
+  </si>
+  <si>
+    <t>SECCIÓN 5.3.3, corrección 5.1</t>
   </si>
 </sst>
 </file>
@@ -135,7 +180,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +223,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,11 +253,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -243,6 +305,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,498 +618,640 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4">
+        <v>40214</v>
+      </c>
+      <c r="E2" s="4">
+        <v>40216</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4">
+        <v>40216</v>
+      </c>
+      <c r="H2" s="4">
+        <v>40216</v>
+      </c>
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4">
+        <v>40214</v>
+      </c>
+      <c r="E3" s="4">
+        <v>40216</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4">
+        <v>40216</v>
+      </c>
+      <c r="H3" s="4">
+        <v>40216</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="K3" s="7"/>
+      <c r="L3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4">
+        <v>40214</v>
+      </c>
+      <c r="E4" s="4">
+        <v>40216</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="4">
+        <v>40216</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="8"/>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4">
+        <v>40214</v>
+      </c>
+      <c r="E5" s="4">
+        <v>40216</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4">
+        <v>40216</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="K5" s="15"/>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4">
+        <v>40214</v>
+      </c>
+      <c r="E6" s="4">
+        <v>40216</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="4">
+        <v>40216</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="K6" s="9"/>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4">
         <v>40214</v>
       </c>
-      <c r="D2" s="4">
-        <v>40216</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="4">
-        <v>40216</v>
-      </c>
-      <c r="G2" s="4">
-        <v>40216</v>
-      </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4">
-        <v>40214</v>
-      </c>
-      <c r="D3" s="4">
-        <v>40216</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4">
-        <v>40216</v>
-      </c>
-      <c r="G3" s="4">
-        <v>40216</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4">
-        <v>40214</v>
-      </c>
-      <c r="D4" s="4">
-        <v>40216</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4">
-        <v>40216</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="8"/>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="4">
-        <v>40214</v>
-      </c>
-      <c r="D5" s="4">
-        <v>40216</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="4">
-        <v>40216</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="J5" s="15"/>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="5" t="s">
+      <c r="E7" s="4">
+        <v>40216</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="4">
-        <v>40214</v>
-      </c>
-      <c r="D6" s="4">
-        <v>40216</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="4">
-        <v>40216</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="J6" s="9"/>
-      <c r="K6" t="s">
+      <c r="G7" s="4">
+        <v>40216</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="4">
-        <v>40214</v>
-      </c>
-      <c r="D7" s="4">
-        <v>40216</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="4">
-        <v>40216</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="10" t="s">
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="12">
-        <v>40216</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
+        <v>40216</v>
+      </c>
+      <c r="E9" s="13">
         <v>40224</v>
       </c>
-      <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="10" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12">
-        <v>40216</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
+        <v>40216</v>
+      </c>
+      <c r="E10" s="13">
         <v>40224</v>
       </c>
-      <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="10" t="s">
+      <c r="H10" s="10"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="12">
-        <v>40216</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
+        <v>40216</v>
+      </c>
+      <c r="E11" s="13">
         <v>40224</v>
       </c>
-      <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="10" t="s">
+      <c r="H11" s="10"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12">
-        <v>40216</v>
-      </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
+        <v>40216</v>
+      </c>
+      <c r="E12" s="13">
         <v>40224</v>
       </c>
-      <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="10" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="12">
-        <v>40216</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
+        <v>40216</v>
+      </c>
+      <c r="E13" s="13">
         <v>40224</v>
       </c>
-      <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="10" t="s">
+      <c r="H13" s="10"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="12">
-        <v>40216</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
+        <v>40216</v>
+      </c>
+      <c r="E14" s="13">
         <v>40224</v>
       </c>
-      <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="14" t="s">
+      <c r="H14" s="10"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="12">
-        <v>40216</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
+        <v>40216</v>
+      </c>
+      <c r="E15" s="13">
         <v>40224</v>
       </c>
-      <c r="E15" s="11"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="11" t="s">
+      <c r="H15" s="11"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="12">
-        <v>40216</v>
-      </c>
       <c r="D16" s="12">
+        <v>40216</v>
+      </c>
+      <c r="E16" s="12">
         <v>40224</v>
       </c>
-      <c r="E16" s="11"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="11" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="12">
-        <v>40216</v>
+      <c r="C17" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="D17" s="12">
+        <v>40216</v>
+      </c>
+      <c r="E17" s="12">
         <v>40228</v>
       </c>
-      <c r="E17" s="11"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="16">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="19">
+        <v>40222</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="19">
+        <v>40222</v>
+      </c>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="21"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="16">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="19">
+        <v>40222</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="19">
+        <v>40222</v>
+      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="20"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="16">
+        <v>20</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="19">
+        <v>40222</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="20"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="19">
+        <v>40222</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="20"/>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="16">
+        <v>22</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="19">
+        <v>40222</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="19">
+        <v>40222</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="20"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="16">
+        <v>24</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="19">
+        <v>40222</v>
+      </c>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="17">
+        <v>40222</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="16">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/formato tareas.xlsx
+++ b/trunk/formato tareas.xlsx
@@ -268,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -313,10 +313,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -620,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -867,7 +863,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2">
@@ -888,7 +884,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="2">
@@ -909,7 +905,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2">
@@ -930,7 +926,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2">
@@ -951,7 +947,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="2">
@@ -972,7 +968,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="2">
@@ -1014,7 +1010,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2">
@@ -1050,11 +1046,13 @@
       <c r="D18" s="19">
         <v>40222</v>
       </c>
-      <c r="E18" s="18"/>
+      <c r="E18" s="13">
+        <v>40224</v>
+      </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2">
@@ -1069,11 +1067,13 @@
       <c r="D19" s="19">
         <v>40222</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="13">
+        <v>40224</v>
+      </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="21"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="16">
@@ -1088,7 +1088,9 @@
       <c r="D20" s="19">
         <v>40222</v>
       </c>
-      <c r="E20" s="18"/>
+      <c r="E20" s="13">
+        <v>40224</v>
+      </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -1107,11 +1109,13 @@
       <c r="D21" s="19">
         <v>40222</v>
       </c>
-      <c r="E21" s="18"/>
+      <c r="E21" s="13">
+        <v>40224</v>
+      </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="16">
@@ -1126,11 +1130,13 @@
       <c r="D22" s="19">
         <v>40222</v>
       </c>
-      <c r="E22" s="18"/>
+      <c r="E22" s="13">
+        <v>40224</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2">
@@ -1145,11 +1151,13 @@
       <c r="D23" s="19">
         <v>40222</v>
       </c>
-      <c r="E23" s="18"/>
+      <c r="E23" s="13">
+        <v>40224</v>
+      </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="16">
@@ -1164,11 +1172,13 @@
       <c r="D24" s="19">
         <v>40222</v>
       </c>
-      <c r="E24" s="18"/>
+      <c r="E24" s="13">
+        <v>40224</v>
+      </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2">
@@ -1183,11 +1193,13 @@
       <c r="D25" s="19">
         <v>40222</v>
       </c>
-      <c r="E25" s="18"/>
+      <c r="E25" s="12">
+        <v>40224</v>
+      </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="15"/>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="16">
@@ -1202,11 +1214,13 @@
       <c r="D26" s="19">
         <v>40222</v>
       </c>
-      <c r="E26" s="18"/>
+      <c r="E26" s="12">
+        <v>40228</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2">
